--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation-posix-only.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation-posix-only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEA1C1E-BC94-4AC3-BF16-51472488615D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ECBC4A-08E8-4FD0-85E8-C60DBA31598F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="777" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="601">
   <si>
     <t/>
   </si>
@@ -2190,6 +2190,10 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:Annotation</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6524,7 +6528,7 @@
         <v>574</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation-posix-only.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation-posix-only.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ECBC4A-08E8-4FD0-85E8-C60DBA31598F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7E308-EBED-492C-9F37-3F9C101A379B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="777" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="777" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="29" r:id="rId1"/>
@@ -47,8 +47,8 @@
     <sheet name="Structured_Annotations" sheetId="64" r:id="rId32"/>
     <sheet name="XML_Annotation" sheetId="60" r:id="rId33"/>
     <sheet name="Timestamp_Annotation" sheetId="61" r:id="rId34"/>
-    <sheet name="Unit" sheetId="62" r:id="rId35"/>
-    <sheet name="size" sheetId="63" r:id="rId36"/>
+    <sheet name="size" sheetId="63" r:id="rId35"/>
+    <sheet name="width" sheetId="66" r:id="rId36"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="591">
   <si>
     <t/>
   </si>
@@ -452,9 +452,6 @@
     <t>XML annotation value</t>
   </si>
   <si>
-    <t>:XMLAnnotationValue</t>
-  </si>
-  <si>
     <t>:XMLAnnotation</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>timestamp annotation value</t>
   </si>
   <si>
-    <t>:timestampAnnotationValue</t>
-  </si>
-  <si>
     <t>:TimestampAnnotation</t>
   </si>
   <si>
@@ -1361,10 +1355,6 @@
     <t>:FillRule</t>
   </si>
   <si>
-    <t>xsd:int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:FontStyle</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1542,18 +1532,6 @@
   </si>
   <si>
     <t>fontFamily:serif</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1564,63 +1542,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1655,10 +1576,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixel type</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1730,9 +1647,6 @@
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation-posix-only/reagent/</t>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation-posix-only/unit/</t>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation-posix-only/regionOfInterest/</t>
   </si>
   <si>
@@ -2109,14 +2023,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:pt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"point"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[font:shape3]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2194,6 +2100,56 @@
   </si>
   <si>
     <t>:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATO:0000921</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[width:1pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[width:2pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rdf:value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[width:1pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[width:2pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:pt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2201,7 +2157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2230,13 +2186,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2270,7 +2219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2291,9 +2240,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2623,14 +2569,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2646,7 +2592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2654,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2662,7 +2608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2670,7 +2616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2678,172 +2624,172 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>459</v>
+        <v>589</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>468</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -2859,17 +2805,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2877,7 +2823,7 @@
         <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -2886,7 +2832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -2897,13 +2843,13 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -2912,7 +2858,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2920,7 +2866,7 @@
         <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -2929,60 +2875,60 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2997,15 +2943,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3013,26 +2959,26 @@
         <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -3040,39 +2986,39 @@
         <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -3087,30 +3033,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3120,74 +3066,74 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3202,42 +3148,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3248,36 +3194,36 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3289,76 +3235,76 @@
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -3373,18 +3319,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3392,7 +3338,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -3404,10 +3350,10 @@
         <v>92</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3422,13 +3368,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
@@ -3440,10 +3386,10 @@
         <v>93</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3397,7 @@
         <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3466,109 +3412,109 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3583,16 +3529,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3600,13 +3546,13 @@
         <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3614,19 +3560,19 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -3634,21 +3580,21 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3663,42 +3609,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3709,42 +3655,42 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>117</v>
@@ -3753,18 +3699,18 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="D5" s="1">
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
@@ -3785,26 +3731,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3813,7 +3759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -3822,23 +3768,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3853,20 +3799,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3874,7 +3820,7 @@
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -3892,7 +3838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3906,13 +3852,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
@@ -3924,13 +3870,13 @@
         <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -3938,7 +3884,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3950,49 +3896,49 @@
         <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4007,21 +3953,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4029,10 +3975,10 @@
         <v>97</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>105</v>
@@ -4065,7 +4011,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4083,49 +4029,49 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4133,19 +4079,19 @@
         <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>54</v>
@@ -4163,30 +4109,30 @@
         <v>54</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -4204,32 +4150,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="M6" s="1" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4244,17 +4190,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4262,7 +4208,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
@@ -4271,7 +4217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4280,13 +4226,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>25</v>
@@ -4295,7 +4241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4303,7 +4249,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>31</v>
@@ -4312,18 +4258,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4338,17 +4284,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4356,7 +4302,7 @@
         <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>60</v>
@@ -4365,7 +4311,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4374,13 +4320,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>66</v>
@@ -4389,7 +4335,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4397,55 +4343,55 @@
         <v>113</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4461,16 +4407,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4487,7 +4433,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4496,7 +4442,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -4511,7 +4457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4525,46 +4471,46 @@
         <v>123</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -4582,16 +4528,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4599,7 +4545,7 @@
         <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -4608,7 +4554,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4619,13 +4565,13 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -4634,7 +4580,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4642,7 +4588,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -4651,62 +4597,62 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4721,42 +4667,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4764,112 +4710,112 @@
         <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -4884,65 +4830,65 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4959,54 +4905,54 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>117</v>
@@ -5015,36 +4961,36 @@
         <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>374</v>
+        <v>579</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5056,12 +5002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5070,33 +5016,33 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
+      <c r="K6" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5105,9 +5051,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -5116,9 +5062,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -5127,9 +5073,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -5138,9 +5084,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -5149,9 +5095,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -5160,9 +5106,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -5171,9 +5117,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -5182,9 +5128,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D15" s="1">
         <v>1.1000000000000001</v>
@@ -5193,9 +5139,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D16" s="1">
         <v>10.1</v>
@@ -5204,9 +5150,9 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D17" s="1">
         <v>20.100000000000001</v>
@@ -5215,9 +5161,9 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D18" s="1">
         <v>20.100000000000001</v>
@@ -5238,51 +5184,51 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -5296,45 +5242,45 @@
       <c r="I2" s="5"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>117</v>
@@ -5349,21 +5295,21 @@
         <v>117</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5378,13 +5324,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I5" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -5399,41 +5345,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -5445,36 +5391,36 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>117</v>
@@ -5495,9 +5441,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5528,49 +5474,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDFE2C6-0F0A-4538-B231-A37E9DA25EEF}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -5582,39 +5526,39 @@
       <c r="G2" s="3"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>117</v>
@@ -5623,21 +5567,21 @@
         <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5646,21 +5590,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G5" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="H5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -5669,15 +5613,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -5686,15 +5630,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5703,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -5718,38 +5662,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -5759,83 +5703,83 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -5850,45 +5794,45 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -5900,145 +5844,145 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6054,16 +5998,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6071,7 +6015,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>34</v>
@@ -6080,7 +6024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6089,13 +6033,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>35</v>
@@ -6104,7 +6048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -6112,7 +6056,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>36</v>
@@ -6121,18 +6065,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6145,56 +6089,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC94D4C-0C49-43CD-ABCB-92AA30A33646}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6209,48 +6155,48 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>117</v>
@@ -6265,24 +6211,24 @@
         <v>117</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="D5" s="1">
         <v>1.7</v>
@@ -6297,24 +6243,24 @@
         <v>4.7</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K5" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="D6" s="1">
         <v>1.71</v>
@@ -6329,21 +6275,21 @@
         <v>4.71</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>399</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="D7" s="1">
         <v>1.72</v>
@@ -6358,13 +6304,13 @@
         <v>4.72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
+        <v>400</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -6379,33 +6325,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6414,65 +6360,65 @@
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -6486,89 +6432,89 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -6584,16 +6530,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6601,13 +6547,13 @@
         <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6615,52 +6561,52 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -6675,34 +6621,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6711,78 +6657,78 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>582</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -6793,209 +6739,196 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673093B1-98AF-45AB-8C3B-7ADC422B161E}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" t="s">
-        <v>433</v>
-      </c>
-      <c r="D5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CCEA90-794E-4604-A1E3-246E4E79A464}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1F496-770B-4E7C-B00A-20939634CB1F}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>579</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -7011,19 +6944,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7031,7 +6964,7 @@
         <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -7046,7 +6979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7059,13 +6992,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -7080,7 +7013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7088,7 +7021,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -7103,32 +7036,32 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -7144,19 +7077,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7164,7 +7097,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>60</v>
@@ -7182,7 +7115,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7194,13 +7127,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>66</v>
@@ -7218,7 +7151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7226,7 +7159,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>72</v>
@@ -7244,18 +7177,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -7264,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -7279,17 +7212,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7297,7 +7230,7 @@
         <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>34</v>
@@ -7306,7 +7239,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7315,13 +7248,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>35</v>
@@ -7330,7 +7263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7338,7 +7271,7 @@
         <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>36</v>
@@ -7347,15 +7280,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -7373,42 +7306,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7416,92 +7349,92 @@
         <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1">
         <v>-1147483648</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1">
         <v>-1474836488</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1">
         <v>-2144364811</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="C10" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="C11" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="C12" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="C13" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="C14" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="C15" s="1">
         <v>172</v>
@@ -7517,21 +7450,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854EA9AE-C9FF-491B-A6F1-501BD57FD15D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7539,7 +7470,7 @@
         <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -7548,7 +7479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7559,13 +7490,13 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -7574,7 +7505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7582,7 +7513,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -7591,18 +7522,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7617,22 +7548,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7643,7 +7574,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -7664,7 +7595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7682,7 +7613,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -7691,7 +7622,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>24</v>
@@ -7712,7 +7643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7723,13 +7654,13 @@
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>52</v>
@@ -7738,131 +7669,131 @@
         <v>88</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation-posix-only.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation-posix-only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7E308-EBED-492C-9F37-3F9C101A379B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6843757-FB18-4972-820D-72C123D07818}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="777" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="640">
   <si>
     <t/>
   </si>
@@ -152,9 +152,6 @@
     <t>rdf:langString</t>
   </si>
   <si>
-    <t>http://xmlns.com/foaf/0.1/Person</t>
-  </si>
-  <si>
     <t>:Dataset</t>
   </si>
   <si>
@@ -649,18 +646,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[dataset:project:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image0</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[xmlAnnotation:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>plate:plate0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -669,18 +658,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnotation:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plateAcquisition:plate0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>plate:plate1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -689,10 +666,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:well0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -732,14 +705,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>screen:screen1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -752,14 +717,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>screen:screen2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -772,14 +729,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>screen:screen3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -792,14 +741,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Reagents Set XYZ"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -893,10 +834,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[experimenter:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"John"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -909,30 +846,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[experimenter:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>experimenter</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1017,10 +930,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[objective:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Objective</t>
   </si>
   <si>
@@ -1077,10 +986,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>roi:roi0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1101,30 +1006,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:AcquisitionMode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1204,58 +1085,6 @@
     <t>:Shape</t>
   </si>
   <si>
-    <t>[point:shape0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[rectangle:shape2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[polygon:shape4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[polyline:shape5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[polyline:shape6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[line:shape7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[line:shape8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[line:shape9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape12]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape13]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1367,54 +1196,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[point:shape4:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape4:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape4:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape4:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>transform</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1431,10 +1212,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[transform:ractangle:shape2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:FontFamily</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1487,23 +1264,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[timestampAnnotation:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2037-12-15T17:30:00</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[timestampAnnotation:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1996-03-23T14:45:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:4]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1635,30 +1400,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/timestampannotation-posix-only/image/</t>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation-posix-only/plate/</t>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation-posix-only/screen/</t>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation-posix-only/reagent/</t>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation-posix-only/regionOfInterest/</t>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation-posix-only/instrument/</t>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation-posix-only/experimenterGroup/</t>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation-posix-only/project/</t>
-  </si>
-  <si>
     <t>:dimensionOrder</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2088,10 +1829,6 @@
   </si>
   <si>
     <t>:font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[font:shape1]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2150,6 +1887,432 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dataset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polygon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polyline</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/image/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/plate/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/screen/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/reagent/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/regionOfInterest/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/instrument/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/experimenterGroup/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/project/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/dataset/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/person/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/well/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/wellSample/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/plateAcquisition/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/reagentSet/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/protocol/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/timestampAnnotation-posix-only/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/objective/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/pixels/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/channel/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/bindata/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/point/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/rectangle/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/transform/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/label/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/polygon/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/polyline/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/line/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/font/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampAnnotation-posix-only/xmlAnnotation/</t>
+  </si>
+  <si>
+    <t>dataset:project0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:xmlAnnotation0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:xmlAnnotation1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition:plate0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:well0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:screen0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol:screen0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:screen1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol:screen1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:screen2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol:screen2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:screen3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol:screen3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape0</t>
+  </si>
+  <si>
+    <t>point:shape1</t>
+  </si>
+  <si>
+    <t>rectangle:shape2</t>
+  </si>
+  <si>
+    <t>label:shape3</t>
+  </si>
+  <si>
+    <t>polygon:shape4</t>
+  </si>
+  <si>
+    <t>polyline:shape5</t>
+  </si>
+  <si>
+    <t>polyline:shape6</t>
+  </si>
+  <si>
+    <t>line:shape7</t>
+  </si>
+  <si>
+    <t>line:shape8</t>
+  </si>
+  <si>
+    <t>line:shape9</t>
+  </si>
+  <si>
+    <t>label:shape11</t>
+  </si>
+  <si>
+    <t>label:shape12</t>
+  </si>
+  <si>
+    <t>label:shape13</t>
+  </si>
+  <si>
+    <t>font:shape1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rectangle:shape2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transform:rectangle_shape2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polygon:shape4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font:shape3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation4</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2565,14 +2728,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2626,170 +2789,346 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>431</v>
+        <v>372</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>432</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>434</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>317</v>
+        <v>521</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>441</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>442</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>444</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>437</v>
+        <v>185</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>445</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>446</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>447</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>448</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>589</v>
+        <v>381</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>590</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -2820,16 +3159,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2849,13 +3188,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2863,72 +3202,72 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>577</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>581</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>227</v>
+        <v>583</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>482</v>
+        <v>415</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2956,10 +3295,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2975,7 +3314,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2983,42 +3322,42 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>483</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3047,10 +3386,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -3072,7 +3411,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -3083,10 +3422,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3094,46 +3433,46 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>578</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>580</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>582</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3490,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
@@ -3165,22 +3504,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3200,19 +3539,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3220,10 +3559,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3235,76 +3574,76 @@
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>253</v>
+        <v>585</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>257</v>
+      <c r="B6" s="4" t="s">
+        <v>586</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>258</v>
+      <c r="B7" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>493</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>259</v>
+      <c r="B8" s="4" t="s">
+        <v>588</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>494</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>260</v>
+      <c r="B9" s="4" t="s">
+        <v>589</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>495</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>261</v>
+      <c r="B10" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>262</v>
+      <c r="B11" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>497</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3317,7 +3656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53F5001-BBED-47AB-BB29-BAF98DC276F6}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3326,7 +3667,7 @@
     <col min="3" max="3" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3335,10 +3676,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -3347,10 +3688,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3374,7 +3715,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
@@ -3383,10 +3724,10 @@
         <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3394,10 +3735,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3406,115 +3747,115 @@
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>257</v>
+        <v>586</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>261</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>257</v>
+        <v>586</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>258</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>253</v>
+        <v>585</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>259</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>262</v>
+        <v>591</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>260</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>257</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>257</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -3543,13 +3884,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3566,10 +3907,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -3577,24 +3918,24 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>504</v>
+        <v>437</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3953,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -3626,22 +3967,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3661,19 +4002,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3681,36 +4022,36 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>284</v>
+        <v>592</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="D5" s="1">
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
@@ -3744,7 +4085,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -3773,7 +4114,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
@@ -3781,10 +4122,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3805,9 +4146,9 @@
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -3817,25 +4158,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -3858,22 +4199,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -3881,64 +4222,64 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>506</v>
+        <v>439</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>301</v>
+        <v>593</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>253</v>
+        <v>585</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3962,8 +4303,8 @@
     <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3972,43 +4313,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -4035,40 +4376,40 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>449</v>
+        <v>382</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -4076,63 +4417,63 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>301</v>
+        <v>593</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>507</v>
+        <v>440</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>369</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -4150,32 +4491,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>307</v>
+        <v>594</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>308</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>593</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>309</v>
+        <v>596</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>310</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>593</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>311</v>
+        <v>598</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>312</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -4195,8 +4536,8 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4208,7 +4549,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
@@ -4232,7 +4573,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>25</v>
@@ -4249,32 +4590,33 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>571</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4287,7 +4629,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -4299,16 +4641,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4326,13 +4668,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -4340,58 +4682,58 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>594</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>508</v>
+        <v>441</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>596</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>598</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4410,7 +4752,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -4421,16 +4764,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4448,13 +4791,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -4462,27 +4805,27 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>577</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>308</v>
+        <v>595</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -4490,13 +4833,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>597</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -4504,13 +4847,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>312</v>
+        <v>599</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -4542,16 +4885,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4571,13 +4914,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -4585,74 +4928,74 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4671,7 +5014,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4680,10 +5023,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4699,7 +5042,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -4707,115 +5050,115 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>334</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>335</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>336</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>337</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>338</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>339</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>340</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>341</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>342</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>343</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>344</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>345</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>346</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -4833,12 +5176,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -4852,40 +5195,40 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -4911,37 +5254,37 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -4949,48 +5292,48 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>557</v>
+        <v>490</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>334</v>
+        <v>600</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5004,10 +5347,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>335</v>
+        <v>601</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5016,25 +5359,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>576</v>
+        <v>352</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>580</v>
+        <v>512</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -5042,7 +5385,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>375</v>
+        <v>614</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5053,7 +5396,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>376</v>
+        <v>615</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -5064,7 +5407,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>377</v>
+        <v>616</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -5075,7 +5418,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>378</v>
+        <v>617</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -5086,7 +5429,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>379</v>
+        <v>618</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -5097,7 +5440,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>380</v>
+        <v>619</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -5108,7 +5451,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>381</v>
+        <v>620</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -5119,7 +5462,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>382</v>
+        <v>621</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -5130,7 +5473,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>383</v>
+        <v>622</v>
       </c>
       <c r="D15" s="1">
         <v>1.1000000000000001</v>
@@ -5141,7 +5484,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>384</v>
+        <v>623</v>
       </c>
       <c r="D16" s="1">
         <v>10.1</v>
@@ -5152,7 +5495,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>385</v>
+        <v>624</v>
       </c>
       <c r="D17" s="1">
         <v>20.100000000000001</v>
@@ -5163,7 +5506,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>386</v>
+        <v>625</v>
       </c>
       <c r="D18" s="1">
         <v>20.100000000000001</v>
@@ -5187,12 +5530,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5201,31 +5544,31 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -5248,28 +5591,28 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -5277,39 +5620,39 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>626</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5324,13 +5667,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="I5" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>391</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -5348,35 +5691,35 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>561</v>
+        <v>494</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>562</v>
+        <v>495</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>566</v>
+        <v>499</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>567</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5397,22 +5740,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>568</v>
+        <v>501</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>572</v>
+        <v>505</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>573</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5420,30 +5763,30 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>391</v>
+        <v>627</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5479,7 +5822,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -5493,25 +5836,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5532,22 +5875,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5555,33 +5898,33 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>557</v>
+        <v>490</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>337</v>
+        <v>628</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5590,21 +5933,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="G5" t="s">
-        <v>559</v>
+        <v>492</v>
       </c>
       <c r="H5" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>344</v>
+        <v>629</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -5613,15 +5956,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>345</v>
+        <v>630</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -5630,15 +5973,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>346</v>
+        <v>631</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5647,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5665,9 +6008,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -5678,19 +6021,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5709,16 +6052,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -5726,60 +6069,60 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>338</v>
+        <v>632</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>376</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>338</v>
+        <v>632</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>377</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>338</v>
+        <v>632</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>378</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -5811,25 +6154,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5850,22 +6193,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5873,116 +6216,116 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>339</v>
+        <v>605</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>380</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>339</v>
+        <v>605</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>381</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>339</v>
+        <v>605</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>382</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>340</v>
+        <v>606</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>524</v>
+        <v>457</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>383</v>
+        <v>622</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>340</v>
+        <v>606</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>384</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>340</v>
+        <v>606</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>385</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>340</v>
+        <v>606</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>386</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6000,10 +6343,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6012,13 +6356,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -6039,10 +6383,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>26</v>
@@ -6053,30 +6397,30 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>571</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>463</v>
+        <v>396</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>193</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -6089,14 +6433,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC94D4C-0C49-43CD-ABCB-92AA30A33646}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
@@ -6110,34 +6452,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -6161,31 +6503,31 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -6193,42 +6535,42 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>633</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>525</v>
+        <v>458</v>
       </c>
       <c r="D5" s="1">
         <v>1.7</v>
@@ -6243,24 +6585,24 @@
         <v>4.7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>342</v>
+        <v>634</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
       <c r="D6" s="1">
         <v>1.71</v>
@@ -6275,21 +6617,21 @@
         <v>4.71</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>343</v>
+        <v>635</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="D7" s="1">
         <v>1.72</v>
@@ -6304,13 +6646,13 @@
         <v>4.72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -6328,7 +6670,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
@@ -6339,16 +6681,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6366,13 +6708,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -6380,43 +6722,43 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>557</v>
+        <v>490</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8"/>
-      <c r="B5" s="4" t="s">
-        <v>576</v>
+      <c r="B5" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>558</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>416</v>
+        <v>357</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -6434,9 +6776,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -6444,10 +6786,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -6463,7 +6805,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -6471,50 +6813,50 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>197</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>405</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>407</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>409</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -6533,7 +6875,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -6544,13 +6886,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6567,10 +6909,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>582</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -6578,35 +6920,35 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>572</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>542</v>
+        <v>475</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>573</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -6624,7 +6966,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -6636,16 +6978,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6663,13 +7005,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>582</v>
+        <v>514</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -6677,58 +7019,58 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>405</v>
+        <v>637</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>529</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>407</v>
+        <v>638</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>530</v>
+        <v>463</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>409</v>
+        <v>639</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>533</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -6760,13 +7102,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6774,13 +7116,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -6789,10 +7131,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -6800,35 +7142,35 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>424</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>588</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>558</v>
+        <v>491</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -6860,13 +7202,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>583</v>
+        <v>515</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6874,13 +7216,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -6889,10 +7231,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -6900,35 +7242,35 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>424</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>585</v>
+        <v>517</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>586</v>
+        <v>518</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -6950,9 +7292,9 @@
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6961,22 +7303,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6998,19 +7340,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7018,50 +7360,50 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>464</v>
+        <v>397</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>574</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>197</v>
+        <v>572</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>198</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>465</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -7080,12 +7422,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7094,25 +7436,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -7133,22 +7475,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -7156,39 +7498,39 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>574</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>576</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -7197,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -7215,7 +7557,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -7227,16 +7569,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -7254,13 +7596,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -7268,27 +7610,27 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>576</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -7319,10 +7661,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -7338,7 +7680,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -7346,15 +7688,15 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -7362,7 +7704,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>-1147483648</v>
@@ -7370,7 +7712,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1">
         <v>-1474836488</v>
@@ -7378,7 +7720,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1">
         <v>-2144364811</v>
@@ -7386,7 +7728,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -7394,7 +7736,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
       <c r="C10" s="1">
         <v>15</v>
@@ -7402,7 +7744,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="C11" s="1">
         <v>16</v>
@@ -7410,7 +7752,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
       <c r="C12" s="1">
         <v>161</v>
@@ -7418,7 +7760,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="C13" s="1">
         <v>17</v>
@@ -7426,7 +7768,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
       <c r="C14" s="1">
         <v>171</v>
@@ -7434,7 +7776,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="C15" s="1">
         <v>172</v>
@@ -7455,10 +7797,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7467,10 +7809,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -7496,7 +7838,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -7510,30 +7852,30 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>575</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>193</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -7555,11 +7897,11 @@
     <col min="3" max="3" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7568,28 +7910,28 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>18</v>
@@ -7622,22 +7964,22 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>26</v>
@@ -7648,152 +7990,152 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>471</v>
+        <v>404</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>212</v>
+        <v>577</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>213</v>
+        <v>578</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>193</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>217</v>
+        <v>579</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>218</v>
+        <v>580</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>193</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>222</v>
+        <v>581</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>223</v>
+        <v>582</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>193</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>227</v>
+        <v>583</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>228</v>
+        <v>584</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>193</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation-posix-only.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation-posix-only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6843757-FB18-4972-820D-72C123D07818}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59535C-953E-48EE-9E35-389166987F3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="777" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
   </bookViews>
@@ -60,10 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="640">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="638">
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
@@ -137,39 +134,18 @@
     <t>rdfs:comment</t>
   </si>
   <si>
-    <t>:dataset</t>
-  </si>
-  <si>
-    <t>:annotation</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Project</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
-    <t>:Dataset</t>
-  </si>
-  <si>
-    <t>:Annotation</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>:image</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -182,24 +158,9 @@
     <t>region of interest</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:regionOfInterest</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
-    <t>:RegionOfInterest</t>
-  </si>
-  <si>
     <t>Plate</t>
   </si>
   <si>
@@ -209,15 +170,6 @@
     <t>plate acquisition</t>
   </si>
   <si>
-    <t>:well</t>
-  </si>
-  <si>
-    <t>:plateAcquisition</t>
-  </si>
-  <si>
-    <t>:Plate</t>
-  </si>
-  <si>
     <t>xsd:string</t>
   </si>
   <si>
@@ -227,12 +179,6 @@
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
-    <t>:Well</t>
-  </si>
-  <si>
-    <t>:PlateAcquisition</t>
-  </si>
-  <si>
     <t>Well</t>
   </si>
   <si>
@@ -254,42 +200,12 @@
     <t>column</t>
   </si>
   <si>
-    <t>:reagent</t>
-  </si>
-  <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:wellSample</t>
-  </si>
-  <si>
-    <t>:row</t>
-  </si>
-  <si>
-    <t>:wellType</t>
-  </si>
-  <si>
-    <t>:column</t>
-  </si>
-  <si>
-    <t>:Reagent</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>:WellSample</t>
-  </si>
-  <si>
     <t>Well Sample</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>:index</t>
-  </si>
-  <si>
     <t>Plate Acquision</t>
   </si>
   <si>
@@ -308,24 +224,6 @@
     <t>protocol</t>
   </si>
   <si>
-    <t>:screenType</t>
-  </si>
-  <si>
-    <t>:plate</t>
-  </si>
-  <si>
-    <t>:reagentSet</t>
-  </si>
-  <si>
-    <t>:protocol</t>
-  </si>
-  <si>
-    <t>:Screen</t>
-  </si>
-  <si>
-    <t>:ReagentSet</t>
-  </si>
-  <si>
     <t>Reagent Set</t>
   </si>
   <si>
@@ -338,18 +236,9 @@
     <t>leader</t>
   </si>
   <si>
-    <t>:leader</t>
-  </si>
-  <si>
-    <t>:ExperimenterGroup</t>
-  </si>
-  <si>
     <t>Instrument</t>
   </si>
   <si>
-    <t>:Instrument</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -386,30 +275,15 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>acquisition mode</t>
   </si>
   <si>
-    <t>:acquisitionMode</t>
-  </si>
-  <si>
     <t>xsd:float</t>
   </si>
   <si>
@@ -422,12 +296,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -437,9 +305,6 @@
     <t>union</t>
   </si>
   <si>
-    <t>:union</t>
-  </si>
-  <si>
     <t>rdf:Bag</t>
   </si>
   <si>
@@ -449,9 +314,6 @@
     <t>XML annotation value</t>
   </si>
   <si>
-    <t>:XMLAnnotation</t>
-  </si>
-  <si>
     <t>rdf:XMLLiteral</t>
   </si>
   <si>
@@ -461,24 +323,12 @@
     <t>timestamp annotation value</t>
   </si>
   <si>
-    <t>:TimestampAnnotation</t>
-  </si>
-  <si>
     <t>Point</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>:y</t>
-  </si>
-  <si>
-    <t>:x</t>
-  </si>
-  <si>
-    <t>:Point</t>
-  </si>
-  <si>
     <t>Rectangle</t>
   </si>
   <si>
@@ -488,33 +338,15 @@
     <t>width</t>
   </si>
   <si>
-    <t>:height</t>
-  </si>
-  <si>
-    <t>:width</t>
-  </si>
-  <si>
-    <t>:Rectangle</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
-    <t>:Label</t>
-  </si>
-  <si>
     <t>Polygon</t>
   </si>
   <si>
     <t>point</t>
   </si>
   <si>
-    <t>:point</t>
-  </si>
-  <si>
-    <t>:Polygon</t>
-  </si>
-  <si>
     <t>Polyline</t>
   </si>
   <si>
@@ -524,18 +356,6 @@
     <t>marker start</t>
   </si>
   <si>
-    <t>:markerEnd</t>
-  </si>
-  <si>
-    <t>:markerStart</t>
-  </si>
-  <si>
-    <t>:Polyline</t>
-  </si>
-  <si>
-    <t>:Marker</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -551,21 +371,6 @@
     <t>y1</t>
   </si>
   <si>
-    <t>:x2</t>
-  </si>
-  <si>
-    <t>:y2</t>
-  </si>
-  <si>
-    <t>:x1</t>
-  </si>
-  <si>
-    <t>:y1</t>
-  </si>
-  <si>
-    <t>:Line</t>
-  </si>
-  <si>
     <t>foaf</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -689,94 +494,87 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>screen:screen0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"ScreenName0"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Screen 0 Description"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>screen:screen1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"ScreenName1"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Screen 1 Description"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>screen:screen2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"ScreenName2"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Screen 2 Description"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>screen:screen3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"ScreenName3"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Screen 3 Description"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Reagents Set XYZ"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagent:reagent0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Reragents Set PQR"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagent:reagent1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Reagents Set IJK"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagent:reagent2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Reagents Set AJP"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagent:reagent3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Protocol</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>screen:screen0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"ScreenName0"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Screen 0 Description"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>screen:screen1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"ScreenName1"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Screen 1 Description"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>screen:screen2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"ScreenName2"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Screen 2 Description"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>screen:screen3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"ScreenName3"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Screen 3 Description"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Reagents Set XYZ"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>reagent:reagent0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Reragents Set PQR"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>reagent:reagent1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Reagents Set IJK"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>reagent:reagent2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Reagents Set AJP"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>reagent:reagent3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t>:Protocol</t>
   </si>
   <si>
     <t>"Protocol Description Test0"@en</t>
@@ -850,10 +648,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:experimenter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>experimenterGroup:experimenterGroup0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -918,14 +712,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ManufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument:instrument0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -947,27 +733,6 @@
     <t>calibrated maginification</t>
   </si>
   <si>
-    <t>:lotNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:nominalMagnification</t>
-  </si>
-  <si>
-    <t>:calibratedMagnification</t>
-  </si>
-  <si>
-    <t>:Objective</t>
-  </si>
-  <si>
-    <t>:Manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[manufacturer:omelabs]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -975,9 +740,6 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>:Manufacturer</t>
-  </si>
-  <si>
     <t>"OME-Labs"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1006,10 +768,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:AcquisitionMode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/wCrzur//wB5oMPi/wBIbJO3AP8ePGCF</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1082,9 +840,6 @@
     <t>rdf:li</t>
   </si>
   <si>
-    <t>:Shape</t>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1133,65 +888,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fillColor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fillRule</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontFamily</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontSize</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontStyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeColor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeDashArray</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeWidth</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:theC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FillRule</t>
-  </si>
-  <si>
-    <t>:FontStyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:1]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1200,22 +896,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:tramsform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FillRule</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Transform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FontFamily</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>fillRule:evenOdd</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1257,10 +937,6 @@
   </si>
   <si>
     <t xml:space="preserve"> name space</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:nameSpace</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1345,10 +1021,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType:uint8</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1400,58 +1072,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Project:0</t>
   </si>
   <si>
@@ -1684,10 +1304,6 @@
     <t>ROI:4</t>
   </si>
   <si>
-    <t>:experimenter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>foaf:Person</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1700,10 +1316,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:1]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1740,14 +1352,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:StructuredAnnotations</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[structuredAnnotation:0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1756,10 +1360,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[size:1pt]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1768,10 +1368,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:AffineTransform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Affine Transform</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1800,43 +1396,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:a00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a02</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>font</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:nonNegativeLong</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Annotation</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2313,6 +1877,506 @@
   </si>
   <si>
     <t>timestampAnnotation:timestampAnnotation4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Project</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dataset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Dataset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PlateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:WellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:row</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:column</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wellType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Screen</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:screenType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ReagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ExperimenterGroup</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:leader</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:experimenter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ManufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lotNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nominalMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:calibratedMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:regionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:RegionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AcquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:union</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Shape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fillColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeDashArray</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeWidth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:height</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:tramsform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AffineTransform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Polygon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Polyline</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:markerStart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Marker</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:markerEnd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontStyle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FontStyle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontFamily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FontFamily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontSize</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:StructuredAnnotations</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:XMLAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:TimestampAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nameSpace</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2741,394 +2805,394 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>521</v>
+        <v>394</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>522</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>542</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>543</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>544</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>545</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>546</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>547</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>548</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>549</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>523</v>
+        <v>396</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>550</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>524</v>
+        <v>397</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>551</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>525</v>
+        <v>398</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>552</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>526</v>
+        <v>399</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>553</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>527</v>
+        <v>400</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>554</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>528</v>
+        <v>401</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>555</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>529</v>
+        <v>402</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>556</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>530</v>
+        <v>403</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>557</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>531</v>
+        <v>404</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>558</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>532</v>
+        <v>405</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>559</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>533</v>
+        <v>406</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>560</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>534</v>
+        <v>407</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>561</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>546</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>535</v>
+        <v>408</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>562</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>536</v>
+        <v>409</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>563</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>564</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>537</v>
+        <v>410</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>565</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>538</v>
+        <v>411</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>566</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>539</v>
+        <v>412</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>567</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>540</v>
+        <v>413</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>568</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>507</v>
+        <v>382</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>569</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>541</v>
+        <v>414</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>570</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -3147,127 +3211,127 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>538</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>70</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>577</v>
+        <v>450</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
+        <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>579</v>
+        <v>452</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>413</v>
+        <v>300</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>581</v>
+        <v>454</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>583</v>
+        <v>456</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>415</v>
+        <v>302</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3292,72 +3356,72 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>542</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>416</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>417</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>419</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3383,96 +3447,96 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>223</v>
+        <v>543</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>578</v>
+        <v>451</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>307</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>580</v>
+        <v>453</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>421</v>
+        <v>308</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>422</v>
+        <v>309</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>584</v>
+        <v>457</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>423</v>
+        <v>310</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3501,30 +3565,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3535,115 +3599,115 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>585</v>
+        <v>458</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>424</v>
+        <v>311</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>431</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>586</v>
+        <v>459</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>425</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>587</v>
+        <v>460</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>426</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>588</v>
+        <v>461</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>427</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>589</v>
+        <v>462</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>428</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>429</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>591</v>
+        <v>464</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>430</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3656,9 +3720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53F5001-BBED-47AB-BB29-BAF98DC276F6}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3673,189 +3735,189 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>545</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>242</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>544</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>586</v>
+        <v>459</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>590</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>433</v>
+        <v>320</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>586</v>
+        <v>459</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>587</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>585</v>
+        <v>458</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>588</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>434</v>
+        <v>321</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>591</v>
+        <v>464</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>589</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>435</v>
+        <v>322</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>586</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>436</v>
+        <v>323</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>586</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -3875,27 +3937,27 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3903,39 +3965,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>259</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>547</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>260</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>437</v>
+        <v>324</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>592</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -3955,39 +4017,39 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3998,60 +4060,60 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>551</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
+        <v>552</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>269</v>
+        <v>554</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>270</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>271</v>
+        <v>550</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>272</v>
+        <v>553</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>592</v>
+        <v>465</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>438</v>
+        <v>325</v>
       </c>
       <c r="D5" s="1">
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
@@ -4082,50 +4144,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>275</v>
+        <v>556</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4149,44 +4211,44 @@
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -4195,91 +4257,91 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>559</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>520</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>558</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>473</v>
+        <v>359</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>45</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>439</v>
+        <v>326</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>281</v>
+        <v>204</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>585</v>
+        <v>458</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>278</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>279</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4297,11 +4359,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -4310,51 +4372,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4372,108 +4434,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>368</v>
+        <v>562</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>382</v>
+        <v>564</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>384</v>
+        <v>566</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>385</v>
+        <v>567</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>386</v>
+        <v>568</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>387</v>
+        <v>569</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>388</v>
+        <v>570</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>389</v>
+        <v>571</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>390</v>
+        <v>572</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>391</v>
+        <v>573</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>393</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>558</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>563</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>383</v>
+        <v>565</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>392</v>
+        <v>574</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>394</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>440</v>
+        <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -4491,32 +4553,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>594</v>
+        <v>467</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>595</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>596</v>
+        <v>469</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>597</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>598</v>
+        <v>471</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>599</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -4543,24 +4605,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4569,48 +4631,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>515</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>514</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>516</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>395</v>
+        <v>282</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>572</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -4630,32 +4692,32 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4664,76 +4726,76 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>526</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>115</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>577</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>527</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>283</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>594</v>
+        <v>467</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>441</v>
+        <v>328</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>596</v>
+        <v>469</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>598</v>
+        <v>471</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>443</v>
+        <v>330</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>291</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4751,34 +4813,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4787,45 +4849,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>581</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>121</v>
+        <v>582</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>120</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>580</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>509</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>595</v>
+        <v>468</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -4833,13 +4895,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>597</v>
+        <v>470</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -4847,13 +4909,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>599</v>
+        <v>472</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -4874,128 +4936,129 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>561</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>467</v>
+        <v>354</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>292</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>468</v>
+        <v>355</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>469</v>
+        <v>356</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>470</v>
+        <v>357</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>471</v>
+        <v>358</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5020,145 +5083,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>586</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>301</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>302</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>303</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>292</v>
+        <v>214</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>600</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>601</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>602</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>603</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>604</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>605</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>606</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>607</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>609</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>610</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>611</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>612</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -5178,13 +5241,13 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
@@ -5192,48 +5255,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>507</v>
+        <v>382</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5250,90 +5313,90 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>316</v>
+        <v>588</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>317</v>
+        <v>589</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>318</v>
+        <v>590</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>319</v>
+        <v>592</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>323</v>
+        <v>596</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>324</v>
+        <v>597</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>325</v>
+        <v>598</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>326</v>
+        <v>599</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>327</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>587</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>476</v>
+        <v>591</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>328</v>
+        <v>593</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>490</v>
+        <v>595</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>330</v>
+        <v>591</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>600</v>
+        <v>473</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5347,10 +5410,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>601</v>
+        <v>474</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5359,25 +5422,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>613</v>
+        <v>486</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>512</v>
+        <v>385</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>446</v>
+        <v>333</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -5385,7 +5448,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>614</v>
+        <v>487</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5396,7 +5459,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>615</v>
+        <v>488</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -5407,7 +5470,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>616</v>
+        <v>489</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -5418,7 +5481,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>617</v>
+        <v>490</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -5429,7 +5492,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>618</v>
+        <v>491</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -5440,7 +5503,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>619</v>
+        <v>492</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -5451,7 +5514,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>620</v>
+        <v>493</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -5462,7 +5525,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>621</v>
+        <v>494</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -5473,7 +5536,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>622</v>
+        <v>495</v>
       </c>
       <c r="D15" s="1">
         <v>1.1000000000000001</v>
@@ -5484,7 +5547,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>623</v>
+        <v>496</v>
       </c>
       <c r="D16" s="1">
         <v>10.1</v>
@@ -5495,7 +5558,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>624</v>
+        <v>497</v>
       </c>
       <c r="D17" s="1">
         <v>20.100000000000001</v>
@@ -5506,7 +5569,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>625</v>
+        <v>498</v>
       </c>
       <c r="D18" s="1">
         <v>20.100000000000001</v>
@@ -5532,48 +5595,50 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5587,72 +5652,72 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>602</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>603</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>142</v>
+        <v>604</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>143</v>
+        <v>605</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>319</v>
+        <v>592</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>326</v>
+        <v>599</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>333</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>601</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>334</v>
+        <v>606</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>335</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>626</v>
+        <v>499</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>447</v>
+        <v>334</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5667,13 +5732,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="I5" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>627</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5690,41 +5755,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>494</v>
+        <v>375</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>495</v>
+        <v>376</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>496</v>
+        <v>377</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>497</v>
+        <v>378</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>498</v>
+        <v>379</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>499</v>
+        <v>380</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>500</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5736,57 +5801,57 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>501</v>
+        <v>609</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>502</v>
+        <v>610</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>503</v>
+        <v>611</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>504</v>
+        <v>612</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>505</v>
+        <v>613</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>506</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>493</v>
+        <v>608</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>627</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5825,41 +5890,41 @@
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>507</v>
+        <v>382</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5871,60 +5936,60 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>602</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>603</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>319</v>
+        <v>592</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>326</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>615</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>334</v>
+        <v>606</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>490</v>
+        <v>595</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>628</v>
+        <v>501</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>449</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5933,21 +5998,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H5" t="s">
         <v>337</v>
-      </c>
-      <c r="G5" t="s">
-        <v>492</v>
-      </c>
-      <c r="H5" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>629</v>
+        <v>502</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>451</v>
+        <v>338</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -5956,15 +6021,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>452</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>630</v>
+        <v>503</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>453</v>
+        <v>340</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -5973,15 +6038,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>452</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>631</v>
+        <v>504</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>454</v>
+        <v>341</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5990,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>452</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6011,34 +6076,34 @@
     <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6048,81 +6113,81 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>617</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>323</v>
+        <v>596</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>325</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>616</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>138</v>
+        <v>587</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>330</v>
+        <v>591</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>632</v>
+        <v>505</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>455</v>
+        <v>342</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>614</v>
+        <v>487</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>632</v>
+        <v>505</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>615</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>632</v>
+        <v>505</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>616</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>632</v>
+        <v>505</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>617</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -6140,44 +6205,45 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6189,143 +6255,143 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>617</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>155</v>
+        <v>619</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>154</v>
+        <v>621</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>323</v>
+        <v>596</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>325</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>618</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>138</v>
+        <v>587</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>157</v>
+        <v>620</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>157</v>
+        <v>620</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>330</v>
+        <v>591</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>605</v>
+        <v>478</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>456</v>
+        <v>343</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>618</v>
+        <v>491</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>605</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>619</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>605</v>
+        <v>478</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>620</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>605</v>
+        <v>478</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>621</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>606</v>
+        <v>479</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>457</v>
+        <v>344</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>622</v>
+        <v>495</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>606</v>
+        <v>479</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>623</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>606</v>
+        <v>479</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>624</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>606</v>
+        <v>479</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>625</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6353,24 +6419,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6379,48 +6445,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>519</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>516</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>520</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>396</v>
+        <v>283</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>573</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -6439,52 +6505,53 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6499,78 +6566,78 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>165</v>
+        <v>623</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>166</v>
+        <v>624</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>163</v>
+        <v>625</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>164</v>
+        <v>626</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>155</v>
+        <v>619</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>154</v>
+        <v>621</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>323</v>
+        <v>596</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>325</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>622</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>157</v>
+        <v>620</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>157</v>
+        <v>620</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>330</v>
+        <v>591</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>633</v>
+        <v>506</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>458</v>
+        <v>345</v>
       </c>
       <c r="D5" s="1">
         <v>1.7</v>
@@ -6585,24 +6652,24 @@
         <v>4.7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>634</v>
+        <v>507</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>459</v>
+        <v>346</v>
       </c>
       <c r="D6" s="1">
         <v>1.71</v>
@@ -6617,21 +6684,21 @@
         <v>4.71</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>635</v>
+        <v>508</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="D7" s="1">
         <v>1.72</v>
@@ -6646,13 +6713,13 @@
         <v>4.72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -6669,33 +6736,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>489</v>
+        <v>372</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6704,61 +6771,61 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>322</v>
+        <v>627</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>320</v>
+        <v>629</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>321</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>490</v>
+        <v>595</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>329</v>
+        <v>628</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>336</v>
+        <v>630</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>613</v>
+        <v>486</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>491</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>636</v>
+        <v>509</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -6777,86 +6844,86 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>484</v>
+        <v>369</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>485</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>486</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>487</v>
+        <v>632</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>510</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>488</v>
+        <v>371</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>572</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>488</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>573</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>488</v>
+        <v>371</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>637</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>488</v>
+        <v>371</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>638</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>488</v>
+        <v>371</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>639</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -6883,21 +6950,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6905,50 +6972,50 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>514</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>635</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>572</v>
+        <v>445</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>475</v>
+        <v>361</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>573</v>
+        <v>446</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6975,24 +7042,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>347</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7001,76 +7068,76 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>514</v>
+        <v>387</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>348</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>636</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>637</v>
+        <v>510</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>461</v>
+        <v>348</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>638</v>
+        <v>511</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>463</v>
+        <v>350</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>464</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>639</v>
+        <v>512</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>465</v>
+        <v>352</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>466</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -7099,78 +7166,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>520</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>491</v>
+        <v>373</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>519</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -7199,78 +7266,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>515</v>
+        <v>388</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>516</v>
+        <v>389</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>517</v>
+        <v>390</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>519</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>518</v>
+        <v>391</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>519</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -7300,35 +7367,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7336,74 +7403,74 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>522</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>517</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>521</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>523</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>518</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>397</v>
+        <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>574</v>
+        <v>447</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>572</v>
+        <v>445</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>575</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>398</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7433,33 +7500,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7471,66 +7538,66 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>526</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>528</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>530</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>69</v>
+        <v>531</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>523</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>527</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>529</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>574</v>
+        <v>447</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>399</v>
+        <v>286</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>576</v>
+        <v>449</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -7539,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>400</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -7566,24 +7633,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7592,45 +7659,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>519</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>529</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>520</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>576</v>
+        <v>449</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>401</v>
+        <v>288</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -7658,45 +7725,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>527</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -7704,7 +7771,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1">
         <v>-1147483648</v>
@@ -7712,7 +7779,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1">
         <v>-1474836488</v>
@@ -7720,7 +7787,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1">
         <v>-2144364811</v>
@@ -7728,7 +7795,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -7736,7 +7803,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>478</v>
+        <v>363</v>
       </c>
       <c r="C10" s="1">
         <v>15</v>
@@ -7744,7 +7811,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>479</v>
+        <v>364</v>
       </c>
       <c r="C11" s="1">
         <v>16</v>
@@ -7752,7 +7819,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>480</v>
+        <v>365</v>
       </c>
       <c r="C12" s="1">
         <v>161</v>
@@ -7760,7 +7827,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>481</v>
+        <v>366</v>
       </c>
       <c r="C13" s="1">
         <v>17</v>
@@ -7768,7 +7835,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>482</v>
+        <v>367</v>
       </c>
       <c r="C14" s="1">
         <v>171</v>
@@ -7776,7 +7843,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>483</v>
+        <v>368</v>
       </c>
       <c r="C15" s="1">
         <v>172</v>
@@ -7806,76 +7873,76 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>525</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>575</v>
+        <v>448</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>402</v>
+        <v>289</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>403</v>
+        <v>290</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>573</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -7897,7 +7964,7 @@
     <col min="3" max="3" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -7907,47 +7974,47 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7957,185 +8024,185 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>83</v>
+        <v>536</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>84</v>
+        <v>537</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>85</v>
+        <v>539</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>534</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>521</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>87</v>
+        <v>538</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>201</v>
+        <v>540</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>31</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>404</v>
+        <v>291</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>408</v>
+        <v>295</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>577</v>
+        <v>450</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>578</v>
+        <v>451</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>573</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>405</v>
+        <v>292</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>579</v>
+        <v>452</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>580</v>
+        <v>453</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>573</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>406</v>
+        <v>293</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>410</v>
+        <v>297</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>581</v>
+        <v>454</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>573</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>407</v>
+        <v>294</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>411</v>
+        <v>298</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>583</v>
+        <v>456</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>584</v>
+        <v>457</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>573</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
